--- a/data_record.xlsx
+++ b/data_record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE919691-43DF-4BD3-9AD0-574191053C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435BC55D-38E1-41F3-A097-7ECCD29FACA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,39 @@
   </si>
   <si>
     <t>临床或实验支持的微生物与药物之间关联的集合，收集了 5,055 个条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chebi_core.obo.CHEBI_SMILES</t>
+  </si>
+  <si>
+    <t>CHEBI database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从ontology文件处理得到的CHEBI-SMILES对应表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniprot_sprot_bacteria.dat.nonenzyme.tsv</t>
+  </si>
+  <si>
+    <t>uniprotKB database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniprot_sprot_bacteria，内含经过uniprot工作人员手工校验过的菌、非酶蛋白，可作为negative sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniprot_sprot_bacteria.dat.enzyme.train_v1</t>
+  </si>
+  <si>
+    <t>uniprotKB, KEGG, Rheal, CHEBI database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从多个数据库整理得到的一部分训练集，positve samples。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="2" width="74.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,8 +515,42 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>